--- a/biology/Botanique/Grimmiaceae/Grimmiaceae.xlsx
+++ b/biology/Botanique/Grimmiaceae/Grimmiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Grimmiaceae est une famille de mousses de l'ordre des Grimmiales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (29 octobre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (29 octobre 2018) :
 genre Coscinodon Spreng.
 genre Dryptodon Brid.
 genre Grimmia Hedw.
@@ -521,7 +535,7 @@
 genre Jaffueliobryum Thér.
 genre Racomitrium Brid.
 genre Schistidium Brid.
-Selon Catalogue of Life                                   (29 octobre 2018)[3] :
+Selon Catalogue of Life                                   (29 octobre 2018) :
 genre Aligrimmia
 genre Coscinodon
 genre Coscinodontella
@@ -534,7 +548,7 @@
 genre Schistidium
 genre Scouleria
 genre Tridontium
-Selon ITIS      (29 octobre 2018)[4] :
+Selon ITIS      (29 octobre 2018) :
 genre Coscinodon Spreng.
 genre Dryptodon Brid.
 genre Grimmia Hedw.
@@ -543,7 +557,7 @@
 genre Racomitrium Brid.
 genre Rhacomitrium Brid.
 genre Schistidium Brid.
-Selon NCBI  (29 octobre 2018)[5] :
+Selon NCBI  (29 octobre 2018) :
 genre Bucklandiella Roiv.
 genre Codriophorus P.Beauv.
 genre Coscinodon Spreng.
@@ -554,7 +568,7 @@
 genre Niphotrichum
 genre Racomitrium Brid.
 genre Schistidium Bruch &amp; Schimp., 1845
-Selon Tropicos                                           (29 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 genre Aligrimmia R.S. Williams
 genre Apocarpum P. Beauv.
 genre Bucklandiella Roiv.
@@ -580,7 +594,7 @@
 genre Tricarinella Savoretti, Bippus, Stockey, G.W. Rothwell &amp; Tomescu
 genre Tridontium Hook. f.
 genre Usmania Laz.
-Selon World Register of Marine Species                               (29 octobre 2018)[6] :
+Selon World Register of Marine Species                               (29 octobre 2018) :
 genre Racomitrium Brid.
 genre Schistidium Brid., 1819
 </t>
